--- a/indata.xlsx
+++ b/indata.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vyom\Documents\gamsdir\gamsdir\projdir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VyomThakker\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\home\vyom\P2P-RNFA\P2P-RNFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506CFA34-820D-445C-AE60-06B3AE66C806}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F148555-4EA8-4CB1-A717-A6DE7F080867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoichMatrix" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1368,18 +1377,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP25" sqref="AP25"/>
+      <selection pane="topRight" activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="63"/>
       <c r="B1" s="63"/>
       <c r="C1" t="s">
@@ -1503,7 +1512,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1762,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2018,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2402,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2530,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2786,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2914,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3042,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3170,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3298,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3426,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3554,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3682,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3810,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
@@ -3938,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>19</v>
       </c>
@@ -4066,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>20</v>
       </c>
@@ -4194,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>21</v>
       </c>
@@ -4322,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>22</v>
       </c>
@@ -4454,7 +4463,7 @@
         <v>-0.70499999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>23</v>
       </c>
@@ -4616,7 +4625,7 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
@@ -4744,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
@@ -4872,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>26</v>
       </c>
@@ -5000,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
@@ -5128,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
@@ -5256,7 +5265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
@@ -5384,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
@@ -5512,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
@@ -5640,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>32</v>
       </c>
@@ -5768,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55" t="s">
         <v>33</v>
       </c>
@@ -5899,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
@@ -6027,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
